--- a/biology/Biochimie/Glycéraldéhyde-3-phosphate_déshydrogénase_NADP+-dépendante/Glycéraldéhyde-3-phosphate_déshydrogénase_NADP+-dépendante.xlsx
+++ b/biology/Biochimie/Glycéraldéhyde-3-phosphate_déshydrogénase_NADP+-dépendante/Glycéraldéhyde-3-phosphate_déshydrogénase_NADP+-dépendante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glyc%C3%A9rald%C3%A9hyde-3-phosphate_d%C3%A9shydrog%C3%A9nase_NADP%2B-d%C3%A9pendante</t>
+          <t>Glycéraldéhyde-3-phosphate_déshydrogénase_NADP+-dépendante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glycéraldéhyde-3-phosphate déshydrogénase NADP+-dépendante est une oxydoréductase qui catalyse la réaction[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glycéraldéhyde-3-phosphate déshydrogénase NADP+-dépendante est une oxydoréductase qui catalyse la réaction :
 1,3-bisphospho-D-glycérate + NADPH + H+  
         ⇌
     {\displaystyle \rightleftharpoons }
   D-glycéraldéhyde-3-phosphate + phosphate + NADP+.
-Cette enzyme intervient notamment dans le cycle de Calvin de la photosynthèse[2] pour convertir le 1,3-bisphosphoglycérate (1,3-BPG) en glycéraldéhyde-3-phosphate.
+Cette enzyme intervient notamment dans le cycle de Calvin de la photosynthèse pour convertir le 1,3-bisphosphoglycérate (1,3-BPG) en glycéraldéhyde-3-phosphate.
 </t>
         </is>
       </c>
